--- a/config_sernhac.xlsx
+++ b/config_sernhac.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="in" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="sernhac" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2084,10 +2084,10 @@
   <dimension ref="A1:M251"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="I30" activeCellId="0" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="45"/>
   </cols>
